--- a/api_paths.xlsx
+++ b/api_paths.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matsumotonorio/docker_dev/blog/infra/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matsumotonorio/docker_dev/blog_infra/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{928C4033-B97A-3945-B6FA-D5371F5AF8C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{951F2FA9-3078-8646-8CE8-6CE0352FDCD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33220" yWindow="2900" windowWidth="28800" windowHeight="16100" xr2:uid="{3B15AD29-345C-5547-B4CF-9A14D819CCE9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>path</t>
     <phoneticPr fontId="1"/>
@@ -71,6 +71,10 @@
   </si>
   <si>
     <t>api/blogs/{post_no}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>api/menus</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -455,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A18F6CA-4657-E644-80FD-D9110D290224}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -518,6 +522,20 @@
         <v>6</v>
       </c>
     </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/api_paths.xlsx
+++ b/api_paths.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matsumotonorio/docker_dev/blog_infra/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{951F2FA9-3078-8646-8CE8-6CE0352FDCD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7569B1C-D38E-0E4F-95D6-BBEE024FFB14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33220" yWindow="2900" windowWidth="28800" windowHeight="16100" xr2:uid="{3B15AD29-345C-5547-B4CF-9A14D819CCE9}"/>
+    <workbookView xWindow="33220" yWindow="2900" windowWidth="28800" windowHeight="16100" activeTab="1" xr2:uid="{3B15AD29-345C-5547-B4CF-9A14D819CCE9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="resource" sheetId="1" r:id="rId1"/>
+    <sheet name="method" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029" calcOnSave="0"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
   <si>
     <t>path</t>
     <phoneticPr fontId="1"/>
@@ -75,6 +76,18 @@
   </si>
   <si>
     <t>api/menus</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>put</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>resource_id</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -82,7 +95,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -95,6 +108,14 @@
       <sz val="6"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -121,8 +142,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -459,25 +483,80 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A18F6CA-4657-E644-80FD-D9110D290224}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
     <col min="1" max="1" width="4.28515625" customWidth="1"/>
     <col min="2" max="2" width="48.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1"/>
   </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46DBA4A6-B3DF-554A-ABF9-F0BD60DE0BEE}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -487,33 +566,39 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
+      <c r="B2" s="1">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
+      <c r="B3" s="1">
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
+      <c r="B4" s="1">
+        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
@@ -523,16 +608,30 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>9</v>
+      <c r="B5" s="1">
+        <v>3</v>
       </c>
       <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
         <v>2</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" t="s">
         <v>6</v>
       </c>
     </row>

--- a/api_paths.xlsx
+++ b/api_paths.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matsumotonorio/docker_dev/blog_infra/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7569B1C-D38E-0E4F-95D6-BBEE024FFB14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F98FE85F-85CA-3E4B-A5E7-D972B62F681E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33220" yWindow="2900" windowWidth="28800" windowHeight="16100" activeTab="1" xr2:uid="{3B15AD29-345C-5547-B4CF-9A14D819CCE9}"/>
+    <workbookView xWindow="33220" yWindow="2900" windowWidth="28800" windowHeight="16100" xr2:uid="{3B15AD29-345C-5547-B4CF-9A14D819CCE9}"/>
   </bookViews>
   <sheets>
     <sheet name="resource" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
   <si>
     <t>path</t>
     <phoneticPr fontId="1"/>
@@ -88,6 +88,10 @@
   </si>
   <si>
     <t>resource_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>api/login</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -483,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A18F6CA-4657-E644-80FD-D9110D290224}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -535,6 +539,14 @@
         <v>9</v>
       </c>
     </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -543,10 +555,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46DBA4A6-B3DF-554A-ABF9-F0BD60DE0BEE}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -635,6 +647,20 @@
         <v>6</v>
       </c>
     </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
